--- a/thabs_PHD/Updated OI's  05 March 2024.xlsx
+++ b/thabs_PHD/Updated OI's  05 March 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thabiso/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Documents\GitHub\Contractual_wk\thabs_PHD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F4F0C2E-1D13-3042-B03C-6A23692E6577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B9BCA-FAB2-4EBD-BDB0-322EBFB722E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="4380" windowWidth="29040" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="4380" windowWidth="29040" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opportunistic infections" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="1296">
   <si>
     <t>id</t>
   </si>
@@ -3718,15 +3718,6 @@
     <t>P T B X 2</t>
   </si>
   <si>
-    <t>HSV</t>
-  </si>
-  <si>
-    <t>HepB</t>
-  </si>
-  <si>
-    <t>Candida</t>
-  </si>
-  <si>
     <t>Cryptococcal Maningitis</t>
   </si>
   <si>
@@ -3745,15 +3736,9 @@
     <t>HAEMALEMASIS, PTB</t>
   </si>
   <si>
-    <t>Parvo B19</t>
-  </si>
-  <si>
     <t>HEMIPARESIS, TB</t>
   </si>
   <si>
-    <t>GE / C diff</t>
-  </si>
-  <si>
     <t>DELIRIUM AT TIMES, DTB</t>
   </si>
   <si>
@@ -3763,27 +3748,18 @@
     <t>CHRONIC DIARRHOEA, TB biotec</t>
   </si>
   <si>
-    <t>Opportunistic infection  (Staph aureus)</t>
-  </si>
-  <si>
     <t>DISS TB,`Scabies</t>
   </si>
   <si>
     <t>PTB, Candida</t>
   </si>
   <si>
-    <t>B menigitis</t>
-  </si>
-  <si>
     <t>JAUNDICE, TB</t>
   </si>
   <si>
     <t>JAUNDICE, Thrush</t>
   </si>
   <si>
-    <t>UTI / Leptospirosis</t>
-  </si>
-  <si>
     <t>HIV+,TB</t>
   </si>
   <si>
@@ -3844,18 +3820,12 @@
     <t xml:space="preserve">Chr Hep B </t>
   </si>
   <si>
-    <t>covid</t>
-  </si>
-  <si>
     <t>CCM/Cryptococcal meningitis</t>
   </si>
   <si>
     <t>Epilepsy, Candida</t>
   </si>
   <si>
-    <t>Neurocysticercosis</t>
-  </si>
-  <si>
     <t>CLAT, Neurocysticercosis</t>
   </si>
   <si>
@@ -3905,6 +3875,42 @@
   </si>
   <si>
     <t>Haemoptysis, ? PTB</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=Staph aureus)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=HSV)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=HepB)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=Candida)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=GE / C diff)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=Parvo B19)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=Syphilis)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=B menigitis)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=UTI / Leptospirosis)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=PCP)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=covid)</t>
+  </si>
+  <si>
+    <t>Opportunistic infection  (choice=Neurocysticercosis)</t>
   </si>
 </sst>
 </file>
@@ -4456,9 +4462,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4496,7 +4502,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4602,7 +4608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4744,7 +4750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4754,13 +4760,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B515" workbookViewId="0">
-      <selection activeCell="J529" sqref="J529"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4792,10 +4798,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="L1" t="s">
-        <v>1246</v>
+        <v>1284</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -4804,43 +4810,43 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>1231</v>
+        <v>1285</v>
       </c>
       <c r="P1" t="s">
-        <v>1232</v>
+        <v>1286</v>
       </c>
       <c r="Q1" t="s">
-        <v>1233</v>
+        <v>1287</v>
       </c>
       <c r="R1" t="s">
         <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>1242</v>
+        <v>1288</v>
       </c>
       <c r="T1" t="s">
-        <v>1240</v>
+        <v>1289</v>
       </c>
       <c r="U1" t="s">
-        <v>689</v>
+        <v>1290</v>
       </c>
       <c r="V1" t="s">
-        <v>1249</v>
+        <v>1291</v>
       </c>
       <c r="W1" t="s">
-        <v>1252</v>
+        <v>1292</v>
       </c>
       <c r="X1" t="s">
-        <v>746</v>
+        <v>1293</v>
       </c>
       <c r="Y1" t="s">
-        <v>1273</v>
+        <v>1294</v>
       </c>
       <c r="Z1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -4898,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5027,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5118,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5147,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5237,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5266,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -5397,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5464,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5586,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -5618,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5647,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5676,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5795,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5853,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5943,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5951,7 +5957,7 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -5978,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6042,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6071,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6199,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="E47" t="s">
         <v>108</v>
@@ -6260,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6289,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6318,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6350,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6379,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6408,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6437,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6585,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6614,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6704,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6736,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6829,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6861,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6890,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6910,7 +6916,7 @@
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="H69" t="s">
         <v>152</v>
@@ -6922,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6960,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7033,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7062,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -7094,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -7143,7 +7149,7 @@
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="H76" t="s">
         <v>15</v>
@@ -7152,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -7184,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>79</v>
       </c>
@@ -7219,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>80</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>81</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="P80">
         <v>1</v>
@@ -7280,7 +7286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>82</v>
       </c>
@@ -7312,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>83</v>
       </c>
@@ -7335,7 +7341,7 @@
         <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7344,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>84</v>
       </c>
@@ -7373,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>85</v>
       </c>
@@ -7405,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>86</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>87</v>
       </c>
@@ -7466,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>88</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>89</v>
       </c>
@@ -7527,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>90</v>
       </c>
@@ -7556,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>91</v>
       </c>
@@ -7588,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>92</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>93</v>
       </c>
@@ -7649,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7678,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>96</v>
       </c>
@@ -7736,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>97</v>
       </c>
@@ -7765,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>98</v>
       </c>
@@ -7794,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>99</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>100</v>
       </c>
@@ -7852,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -7884,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>102</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>103</v>
       </c>
@@ -7948,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>104</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>105</v>
       </c>
@@ -8009,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>106</v>
       </c>
@@ -8041,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>107</v>
       </c>
@@ -8070,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>108</v>
       </c>
@@ -8099,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>109</v>
       </c>
@@ -8128,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>110</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>111</v>
       </c>
@@ -8186,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>112</v>
       </c>
@@ -8215,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>113</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>114</v>
       </c>
@@ -8276,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>115</v>
       </c>
@@ -8308,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>116</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>117</v>
       </c>
@@ -8372,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>118</v>
       </c>
@@ -8401,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>119</v>
       </c>
@@ -8430,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>120</v>
       </c>
@@ -8462,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>121</v>
       </c>
@@ -8491,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>122</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>123</v>
       </c>
@@ -8552,7 +8558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>124</v>
       </c>
@@ -8581,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>125</v>
       </c>
@@ -8589,7 +8595,7 @@
         <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
@@ -8610,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>126</v>
       </c>
@@ -8639,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>127</v>
       </c>
@@ -8668,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>128</v>
       </c>
@@ -8703,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>129</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>266</v>
       </c>
       <c r="C128" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
@@ -8735,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>130</v>
       </c>
@@ -8764,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>131</v>
       </c>
@@ -8793,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>132</v>
       </c>
@@ -8825,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>133</v>
       </c>
@@ -8860,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>134</v>
       </c>
@@ -8889,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>135</v>
       </c>
@@ -8924,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>136</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>137</v>
       </c>
@@ -8985,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>138</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>139</v>
       </c>
@@ -9043,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>140</v>
       </c>
@@ -9072,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>141</v>
       </c>
@@ -9101,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>142</v>
       </c>
@@ -9130,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>143</v>
       </c>
@@ -9162,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>144</v>
       </c>
@@ -9194,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>145</v>
       </c>
@@ -9226,7 +9232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>146</v>
       </c>
@@ -9255,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>147</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>148</v>
       </c>
@@ -9325,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>149</v>
       </c>
@@ -9354,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>150</v>
       </c>
@@ -9386,7 +9392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>151</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>152</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>153</v>
       </c>
@@ -9479,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>154</v>
       </c>
@@ -9514,7 +9520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>155</v>
       </c>
@@ -9546,7 +9552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>156</v>
       </c>
@@ -9578,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>157</v>
       </c>
@@ -9586,7 +9592,7 @@
         <v>333</v>
       </c>
       <c r="C156" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -9607,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>158</v>
       </c>
@@ -9615,7 +9621,7 @@
         <v>335</v>
       </c>
       <c r="C157" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="D157" t="s">
         <v>324</v>
@@ -9639,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>159</v>
       </c>
@@ -9668,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>160</v>
       </c>
@@ -9703,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>161</v>
       </c>
@@ -9732,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>162</v>
       </c>
@@ -9764,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>163</v>
       </c>
@@ -9793,7 +9799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>164</v>
       </c>
@@ -9822,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>165</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>15</v>
       </c>
       <c r="G164" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -9851,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>166</v>
       </c>
@@ -9883,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>167</v>
       </c>
@@ -9915,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>168</v>
       </c>
@@ -9950,7 +9956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>169</v>
       </c>
@@ -9982,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>170</v>
       </c>
@@ -10017,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>171</v>
       </c>
@@ -10052,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>172</v>
       </c>
@@ -10084,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>173</v>
       </c>
@@ -10116,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>174</v>
       </c>
@@ -10151,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>175</v>
       </c>
@@ -10180,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>176</v>
       </c>
@@ -10212,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>177</v>
       </c>
@@ -10220,7 +10226,7 @@
         <v>384</v>
       </c>
       <c r="C176" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
@@ -10241,7 +10247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>178</v>
       </c>
@@ -10270,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>179</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>180</v>
       </c>
@@ -10334,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>181</v>
       </c>
@@ -10363,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>182</v>
       </c>
@@ -10392,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>183</v>
       </c>
@@ -10421,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>184</v>
       </c>
@@ -10450,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>185</v>
       </c>
@@ -10482,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>186</v>
       </c>
@@ -10511,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>187</v>
       </c>
@@ -10519,7 +10525,7 @@
         <v>401</v>
       </c>
       <c r="C186" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
@@ -10543,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>188</v>
       </c>
@@ -10572,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>189</v>
       </c>
@@ -10601,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>190</v>
       </c>
@@ -10633,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>191</v>
       </c>
@@ -10647,7 +10653,7 @@
         <v>276</v>
       </c>
       <c r="E190" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F190" t="s">
         <v>15</v>
@@ -10668,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>192</v>
       </c>
@@ -10697,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>193</v>
       </c>
@@ -10726,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>194</v>
       </c>
@@ -10758,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>195</v>
       </c>
@@ -10787,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>196</v>
       </c>
@@ -10822,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>197</v>
       </c>
@@ -10851,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>198</v>
       </c>
@@ -10886,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>199</v>
       </c>
@@ -10915,7 +10921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>200</v>
       </c>
@@ -10944,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>201</v>
       </c>
@@ -10973,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>202</v>
       </c>
@@ -11002,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>203</v>
       </c>
@@ -11031,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>204</v>
       </c>
@@ -11060,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>205</v>
       </c>
@@ -11095,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>206</v>
       </c>
@@ -11124,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>207</v>
       </c>
@@ -11153,7 +11159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>208</v>
       </c>
@@ -11182,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>209</v>
       </c>
@@ -11211,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>210</v>
       </c>
@@ -11240,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>211</v>
       </c>
@@ -11269,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>212</v>
       </c>
@@ -11298,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>213</v>
       </c>
@@ -11327,7 +11333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>214</v>
       </c>
@@ -11362,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>215</v>
       </c>
@@ -11391,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>216</v>
       </c>
@@ -11420,7 +11426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>217</v>
       </c>
@@ -11449,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>218</v>
       </c>
@@ -11478,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>219</v>
       </c>
@@ -11510,7 +11516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>220</v>
       </c>
@@ -11539,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>221</v>
       </c>
@@ -11568,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>222</v>
       </c>
@@ -11600,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>223</v>
       </c>
@@ -11629,7 +11635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>224</v>
       </c>
@@ -11658,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>225</v>
       </c>
@@ -11687,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>226</v>
       </c>
@@ -11716,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>227</v>
       </c>
@@ -11745,7 +11751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>228</v>
       </c>
@@ -11774,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>229</v>
       </c>
@@ -11812,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>230</v>
       </c>
@@ -11841,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>231</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>232</v>
       </c>
@@ -11899,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>233</v>
       </c>
@@ -11928,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>234</v>
       </c>
@@ -11957,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>235</v>
       </c>
@@ -11986,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>236</v>
       </c>
@@ -12015,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>237</v>
       </c>
@@ -12044,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>238</v>
       </c>
@@ -12073,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>239</v>
       </c>
@@ -12105,7 +12111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>240</v>
       </c>
@@ -12134,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>241</v>
       </c>
@@ -12163,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>242</v>
       </c>
@@ -12192,7 +12198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>243</v>
       </c>
@@ -12221,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>244</v>
       </c>
@@ -12250,7 +12256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>245</v>
       </c>
@@ -12279,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>246</v>
       </c>
@@ -12308,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>247</v>
       </c>
@@ -12337,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>248</v>
       </c>
@@ -12366,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>249</v>
       </c>
@@ -12395,7 +12401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>250</v>
       </c>
@@ -12424,7 +12430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>251</v>
       </c>
@@ -12453,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>252</v>
       </c>
@@ -12485,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>253</v>
       </c>
@@ -12517,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>254</v>
       </c>
@@ -12546,7 +12552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>255</v>
       </c>
@@ -12578,7 +12584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>256</v>
       </c>
@@ -12610,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>257</v>
       </c>
@@ -12642,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>258</v>
       </c>
@@ -12671,7 +12677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>259</v>
       </c>
@@ -12700,7 +12706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>260</v>
       </c>
@@ -12729,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>261</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>262</v>
       </c>
@@ -12787,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>263</v>
       </c>
@@ -12816,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>264</v>
       </c>
@@ -12848,7 +12854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>265</v>
       </c>
@@ -12883,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>266</v>
       </c>
@@ -12915,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>267</v>
       </c>
@@ -12944,7 +12950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>268</v>
       </c>
@@ -12979,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>269</v>
       </c>
@@ -13011,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>270</v>
       </c>
@@ -13040,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>271</v>
       </c>
@@ -13069,7 +13075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>272</v>
       </c>
@@ -13098,7 +13104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>273</v>
       </c>
@@ -13130,7 +13136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>274</v>
       </c>
@@ -13159,7 +13165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>275</v>
       </c>
@@ -13191,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>276</v>
       </c>
@@ -13217,7 +13223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>277</v>
       </c>
@@ -13246,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>278</v>
       </c>
@@ -13275,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>279</v>
       </c>
@@ -13304,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>280</v>
       </c>
@@ -13333,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>281</v>
       </c>
@@ -13362,7 +13368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>282</v>
       </c>
@@ -13394,7 +13400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>283</v>
       </c>
@@ -13423,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>284</v>
       </c>
@@ -13452,7 +13458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>285</v>
       </c>
@@ -13481,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>286</v>
       </c>
@@ -13510,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>287</v>
       </c>
@@ -13539,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>288</v>
       </c>
@@ -13574,7 +13580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>289</v>
       </c>
@@ -13603,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>290</v>
       </c>
@@ -13635,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>291</v>
       </c>
@@ -13667,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>292</v>
       </c>
@@ -13699,7 +13705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>293</v>
       </c>
@@ -13731,7 +13737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>294</v>
       </c>
@@ -13760,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>295</v>
       </c>
@@ -13789,7 +13795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>296</v>
       </c>
@@ -13821,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>297</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>298</v>
       </c>
@@ -13879,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>299</v>
       </c>
@@ -13908,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>300</v>
       </c>
@@ -13937,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>301</v>
       </c>
@@ -13966,7 +13972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>302</v>
       </c>
@@ -13998,7 +14004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>303</v>
       </c>
@@ -14027,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>304</v>
       </c>
@@ -14056,7 +14062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>305</v>
       </c>
@@ -14088,7 +14094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>306</v>
       </c>
@@ -14117,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>307</v>
       </c>
@@ -14146,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>308</v>
       </c>
@@ -14175,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>309</v>
       </c>
@@ -14204,7 +14210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>310</v>
       </c>
@@ -14233,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>311</v>
       </c>
@@ -14262,7 +14268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>312</v>
       </c>
@@ -14297,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>313</v>
       </c>
@@ -14326,7 +14332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>314</v>
       </c>
@@ -14358,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>315</v>
       </c>
@@ -14387,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>316</v>
       </c>
@@ -14416,7 +14422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>317</v>
       </c>
@@ -14448,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>318</v>
       </c>
@@ -14480,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>319</v>
       </c>
@@ -14512,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>320</v>
       </c>
@@ -14541,7 +14547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>321</v>
       </c>
@@ -14570,7 +14576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>322</v>
       </c>
@@ -14602,7 +14608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>323</v>
       </c>
@@ -14631,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>324</v>
       </c>
@@ -14660,7 +14666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>325</v>
       </c>
@@ -14689,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>326</v>
       </c>
@@ -14718,7 +14724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>327</v>
       </c>
@@ -14747,7 +14753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>328</v>
       </c>
@@ -14782,7 +14788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>329</v>
       </c>
@@ -14814,7 +14820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>330</v>
       </c>
@@ -14843,7 +14849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>331</v>
       </c>
@@ -14872,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>332</v>
       </c>
@@ -14901,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>333</v>
       </c>
@@ -14930,7 +14936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>334</v>
       </c>
@@ -14959,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>335</v>
       </c>
@@ -14991,7 +14997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>336</v>
       </c>
@@ -14999,7 +15005,7 @@
         <v>719</v>
       </c>
       <c r="C335" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="D335" t="s">
         <v>573</v>
@@ -15020,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>337</v>
       </c>
@@ -15049,7 +15055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>338</v>
       </c>
@@ -15081,7 +15087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>339</v>
       </c>
@@ -15089,7 +15095,7 @@
         <v>727</v>
       </c>
       <c r="C338" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="D338" t="s">
         <v>728</v>
@@ -15116,7 +15122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>340</v>
       </c>
@@ -15145,7 +15151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>341</v>
       </c>
@@ -15177,7 +15183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>342</v>
       </c>
@@ -15206,7 +15212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>343</v>
       </c>
@@ -15235,7 +15241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>344</v>
       </c>
@@ -15264,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>345</v>
       </c>
@@ -15293,7 +15299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>346</v>
       </c>
@@ -15325,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>347</v>
       </c>
@@ -15360,7 +15366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>348</v>
       </c>
@@ -15389,7 +15395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>349</v>
       </c>
@@ -15418,7 +15424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>350</v>
       </c>
@@ -15450,7 +15456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>351</v>
       </c>
@@ -15458,7 +15464,7 @@
         <v>752</v>
       </c>
       <c r="C350" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="D350" t="s">
         <v>15</v>
@@ -15482,7 +15488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>352</v>
       </c>
@@ -15511,7 +15517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>353</v>
       </c>
@@ -15540,7 +15546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>354</v>
       </c>
@@ -15569,7 +15575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>355</v>
       </c>
@@ -15598,7 +15604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>356</v>
       </c>
@@ -15630,7 +15636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>357</v>
       </c>
@@ -15659,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>358</v>
       </c>
@@ -15688,7 +15694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>359</v>
       </c>
@@ -15720,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>360</v>
       </c>
@@ -15752,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>361</v>
       </c>
@@ -15781,7 +15787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>362</v>
       </c>
@@ -15813,7 +15819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>363</v>
       </c>
@@ -15845,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>364</v>
       </c>
@@ -15856,7 +15862,7 @@
         <v>720</v>
       </c>
       <c r="D363" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="E363" t="s">
         <v>572</v>
@@ -15877,7 +15883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>365</v>
       </c>
@@ -15885,7 +15891,7 @@
         <v>779</v>
       </c>
       <c r="C364" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="D364" t="s">
         <v>731</v>
@@ -15912,7 +15918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>366</v>
       </c>
@@ -15944,7 +15950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>367</v>
       </c>
@@ -15952,7 +15958,7 @@
         <v>782</v>
       </c>
       <c r="C366" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="D366" t="s">
         <v>15</v>
@@ -15976,7 +15982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>368</v>
       </c>
@@ -16005,7 +16011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>369</v>
       </c>
@@ -16025,7 +16031,7 @@
         <v>15</v>
       </c>
       <c r="G368" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="H368" t="s">
         <v>15</v>
@@ -16037,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>370</v>
       </c>
@@ -16066,7 +16072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>371</v>
       </c>
@@ -16092,7 +16098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>372</v>
       </c>
@@ -16103,7 +16109,7 @@
         <v>790</v>
       </c>
       <c r="D371" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="E371" t="s">
         <v>15</v>
@@ -16124,7 +16130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>373</v>
       </c>
@@ -16153,7 +16159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>374</v>
       </c>
@@ -16173,7 +16179,7 @@
         <v>15</v>
       </c>
       <c r="G373" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="H373" t="s">
         <v>15</v>
@@ -16185,7 +16191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>375</v>
       </c>
@@ -16205,7 +16211,7 @@
         <v>15</v>
       </c>
       <c r="G374" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="H374" t="s">
         <v>15</v>
@@ -16220,7 +16226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>376</v>
       </c>
@@ -16252,7 +16258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>377</v>
       </c>
@@ -16260,7 +16266,7 @@
         <v>796</v>
       </c>
       <c r="C376" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="D376" t="s">
         <v>15</v>
@@ -16284,7 +16290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>378</v>
       </c>
@@ -16316,7 +16322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>379</v>
       </c>
@@ -16324,7 +16330,7 @@
         <v>799</v>
       </c>
       <c r="C378" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="D378" t="s">
         <v>800</v>
@@ -16345,7 +16351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>380</v>
       </c>
@@ -16353,7 +16359,7 @@
         <v>801</v>
       </c>
       <c r="C379" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="D379" t="s">
         <v>636</v>
@@ -16380,7 +16386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>381</v>
       </c>
@@ -16415,7 +16421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>382</v>
       </c>
@@ -16447,7 +16453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>383</v>
       </c>
@@ -16476,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>384</v>
       </c>
@@ -16505,7 +16511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>385</v>
       </c>
@@ -16537,7 +16543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>386</v>
       </c>
@@ -16569,7 +16575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>387</v>
       </c>
@@ -16601,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>388</v>
       </c>
@@ -16633,7 +16639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>389</v>
       </c>
@@ -16641,7 +16647,7 @@
         <v>824</v>
       </c>
       <c r="C388" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="D388" t="s">
         <v>825</v>
@@ -16662,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>390</v>
       </c>
@@ -16691,7 +16697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>391</v>
       </c>
@@ -16717,7 +16723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>392</v>
       </c>
@@ -16752,7 +16758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>393</v>
       </c>
@@ -16760,7 +16766,7 @@
         <v>832</v>
       </c>
       <c r="C392" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="D392" t="s">
         <v>15</v>
@@ -16784,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>394</v>
       </c>
@@ -16816,7 +16822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>395</v>
       </c>
@@ -16845,7 +16851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>396</v>
       </c>
@@ -16874,7 +16880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>397</v>
       </c>
@@ -16903,7 +16909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>398</v>
       </c>
@@ -16935,7 +16941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>399</v>
       </c>
@@ -16964,7 +16970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>400</v>
       </c>
@@ -16996,7 +17002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>401</v>
       </c>
@@ -17019,7 +17025,7 @@
         <v>15</v>
       </c>
       <c r="H400" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="M400">
         <v>1</v>
@@ -17028,7 +17034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>402</v>
       </c>
@@ -17060,7 +17066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>403</v>
       </c>
@@ -17095,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>404</v>
       </c>
@@ -17130,7 +17136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>405</v>
       </c>
@@ -17165,7 +17171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>406</v>
       </c>
@@ -17197,7 +17203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>407</v>
       </c>
@@ -17223,7 +17229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>408</v>
       </c>
@@ -17255,7 +17261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>409</v>
       </c>
@@ -17275,7 +17281,7 @@
         <v>15</v>
       </c>
       <c r="G408" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="H408" t="s">
         <v>15</v>
@@ -17284,7 +17290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>410</v>
       </c>
@@ -17310,7 +17316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>411</v>
       </c>
@@ -17345,7 +17351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>412</v>
       </c>
@@ -17374,7 +17380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>413</v>
       </c>
@@ -17403,7 +17409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>414</v>
       </c>
@@ -17435,7 +17441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>415</v>
       </c>
@@ -17467,7 +17473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>416</v>
       </c>
@@ -17496,7 +17502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>417</v>
       </c>
@@ -17522,7 +17528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>419</v>
       </c>
@@ -17554,7 +17560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>420</v>
       </c>
@@ -17583,7 +17589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>421</v>
       </c>
@@ -17612,7 +17618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>422</v>
       </c>
@@ -17620,7 +17626,7 @@
         <v>913</v>
       </c>
       <c r="C420" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="D420" t="s">
         <v>914</v>
@@ -17641,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>423</v>
       </c>
@@ -17667,7 +17673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>424</v>
       </c>
@@ -17702,7 +17708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>425</v>
       </c>
@@ -17734,7 +17740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>426</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>15</v>
       </c>
       <c r="G424" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="H424" t="s">
         <v>15</v>
@@ -17766,7 +17772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>427</v>
       </c>
@@ -17795,7 +17801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>428</v>
       </c>
@@ -17827,7 +17833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>429</v>
       </c>
@@ -17841,7 +17847,7 @@
         <v>933</v>
       </c>
       <c r="E427" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="F427" t="s">
         <v>778</v>
@@ -17859,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>430</v>
       </c>
@@ -17894,7 +17900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>431</v>
       </c>
@@ -17908,7 +17914,7 @@
         <v>938</v>
       </c>
       <c r="E429" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="F429" t="s">
         <v>15</v>
@@ -17926,7 +17932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>432</v>
       </c>
@@ -17958,7 +17964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>433</v>
       </c>
@@ -17990,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>434</v>
       </c>
@@ -18022,7 +18028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>435</v>
       </c>
@@ -18060,7 +18066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>436</v>
       </c>
@@ -18089,7 +18095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>437</v>
       </c>
@@ -18118,7 +18124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>438</v>
       </c>
@@ -18153,7 +18159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>439</v>
       </c>
@@ -18182,7 +18188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>440</v>
       </c>
@@ -18190,7 +18196,7 @@
         <v>963</v>
       </c>
       <c r="C438" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="D438" t="s">
         <v>706</v>
@@ -18211,7 +18217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>441</v>
       </c>
@@ -18249,7 +18255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>442</v>
       </c>
@@ -18281,7 +18287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>443</v>
       </c>
@@ -18313,7 +18319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>444</v>
       </c>
@@ -18345,7 +18351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>445</v>
       </c>
@@ -18374,7 +18380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>446</v>
       </c>
@@ -18406,7 +18412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>447</v>
       </c>
@@ -18438,7 +18444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>448</v>
       </c>
@@ -18467,7 +18473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>449</v>
       </c>
@@ -18502,7 +18508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>451</v>
       </c>
@@ -18534,7 +18540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>452</v>
       </c>
@@ -18563,7 +18569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>453</v>
       </c>
@@ -18595,7 +18601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>454</v>
       </c>
@@ -18624,7 +18630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>455</v>
       </c>
@@ -18656,7 +18662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>456</v>
       </c>
@@ -18688,7 +18694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>457</v>
       </c>
@@ -18699,7 +18705,7 @@
         <v>1014</v>
       </c>
       <c r="D454" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="E454" t="s">
         <v>1015</v>
@@ -18720,7 +18726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>458</v>
       </c>
@@ -18752,7 +18758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>459</v>
       </c>
@@ -18784,7 +18790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>460</v>
       </c>
@@ -18816,7 +18822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>461</v>
       </c>
@@ -18848,7 +18854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>462</v>
       </c>
@@ -18880,7 +18886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>463</v>
       </c>
@@ -18906,7 +18912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>464</v>
       </c>
@@ -18938,7 +18944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>465</v>
       </c>
@@ -18976,7 +18982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>466</v>
       </c>
@@ -19008,7 +19014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>467</v>
       </c>
@@ -19040,7 +19046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>468</v>
       </c>
@@ -19072,7 +19078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>469</v>
       </c>
@@ -19104,7 +19110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>470</v>
       </c>
@@ -19136,7 +19142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>471</v>
       </c>
@@ -19168,7 +19174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>472</v>
       </c>
@@ -19197,7 +19203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>473</v>
       </c>
@@ -19229,7 +19235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>474</v>
       </c>
@@ -19258,7 +19264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>475</v>
       </c>
@@ -19293,7 +19299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>476</v>
       </c>
@@ -19322,7 +19328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>477</v>
       </c>
@@ -19351,7 +19357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>478</v>
       </c>
@@ -19380,7 +19386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>479</v>
       </c>
@@ -19412,7 +19418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>480</v>
       </c>
@@ -19423,10 +19429,10 @@
         <v>1079</v>
       </c>
       <c r="D477" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="E477" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="F477" t="s">
         <v>15</v>
@@ -19444,7 +19450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>481</v>
       </c>
@@ -19473,7 +19479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>482</v>
       </c>
@@ -19502,7 +19508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>483</v>
       </c>
@@ -19534,7 +19540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>484</v>
       </c>
@@ -19542,7 +19548,7 @@
         <v>1090</v>
       </c>
       <c r="C481" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="D481" t="s">
         <v>1092</v>
@@ -19563,7 +19569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>485</v>
       </c>
@@ -19595,7 +19601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>486</v>
       </c>
@@ -19624,7 +19630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>487</v>
       </c>
@@ -19653,7 +19659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>488</v>
       </c>
@@ -19673,7 +19679,7 @@
         <v>15</v>
       </c>
       <c r="G485" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="H485" t="s">
         <v>15</v>
@@ -19682,7 +19688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>489</v>
       </c>
@@ -19690,7 +19696,7 @@
         <v>1107</v>
       </c>
       <c r="C486" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="D486" t="s">
         <v>1108</v>
@@ -19714,7 +19720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>490</v>
       </c>
@@ -19728,7 +19734,7 @@
         <v>1111</v>
       </c>
       <c r="E487" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="F487" t="s">
         <v>15</v>
@@ -19743,7 +19749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>491</v>
       </c>
@@ -19772,7 +19778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>492</v>
       </c>
@@ -19804,7 +19810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>493</v>
       </c>
@@ -19815,7 +19821,7 @@
         <v>720</v>
       </c>
       <c r="D490" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="E490" t="s">
         <v>15</v>
@@ -19836,7 +19842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>494</v>
       </c>
@@ -19865,7 +19871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>495</v>
       </c>
@@ -19885,7 +19891,7 @@
         <v>15</v>
       </c>
       <c r="G492" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="H492" t="s">
         <v>15</v>
@@ -19897,7 +19903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>496</v>
       </c>
@@ -19929,7 +19935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>497</v>
       </c>
@@ -19940,7 +19946,7 @@
         <v>934</v>
       </c>
       <c r="D494" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="E494" t="s">
         <v>15</v>
@@ -19961,7 +19967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>498</v>
       </c>
@@ -19969,7 +19975,7 @@
         <v>1130</v>
       </c>
       <c r="C495" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="D495" t="s">
         <v>720</v>
@@ -19993,7 +19999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>499</v>
       </c>
@@ -20025,7 +20031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>500</v>
       </c>
@@ -20057,7 +20063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>501</v>
       </c>
@@ -20086,7 +20092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>502</v>
       </c>
@@ -20115,7 +20121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>503</v>
       </c>
@@ -20135,7 +20141,7 @@
         <v>15</v>
       </c>
       <c r="G500" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="H500" t="s">
         <v>1146</v>
@@ -20147,7 +20153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>504</v>
       </c>
@@ -20170,7 +20176,7 @@
         <v>1149</v>
       </c>
       <c r="H501" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="J501">
         <v>1</v>
@@ -20179,7 +20185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>505</v>
       </c>
@@ -20211,7 +20217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>506</v>
       </c>
@@ -20243,7 +20249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>507</v>
       </c>
@@ -20272,7 +20278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>508</v>
       </c>
@@ -20301,7 +20307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>509</v>
       </c>
@@ -20327,7 +20333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>510</v>
       </c>
@@ -20359,7 +20365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>511</v>
       </c>
@@ -20391,7 +20397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>512</v>
       </c>
@@ -20420,7 +20426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>513</v>
       </c>
@@ -20449,7 +20455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>514</v>
       </c>
@@ -20481,7 +20487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>515</v>
       </c>
@@ -20510,7 +20516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>516</v>
       </c>
@@ -20539,7 +20545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>517</v>
       </c>
@@ -20571,7 +20577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>519</v>
       </c>
@@ -20579,7 +20585,7 @@
         <v>1182</v>
       </c>
       <c r="C515" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="D515" t="s">
         <v>15</v>
@@ -20600,7 +20606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>520</v>
       </c>
@@ -20629,7 +20635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>521</v>
       </c>
@@ -20658,7 +20664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>522</v>
       </c>
@@ -20687,7 +20693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>523</v>
       </c>
@@ -20716,7 +20722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>524</v>
       </c>
@@ -20745,7 +20751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>525</v>
       </c>
@@ -20774,7 +20780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>526</v>
       </c>
@@ -20803,7 +20809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>527</v>
       </c>
@@ -20832,7 +20838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>528</v>
       </c>
@@ -20864,7 +20870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>529</v>
       </c>
@@ -20896,7 +20902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>530</v>
       </c>
@@ -20928,7 +20934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>531</v>
       </c>
@@ -20957,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>532</v>
       </c>
@@ -20986,7 +20992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>533</v>
       </c>
